--- a/biology/Botanique/Trille_blanc/Trille_blanc.xlsx
+++ b/biology/Botanique/Trille_blanc/Trille_blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trillium grandiflorum
 Le trille blanc (Trillium grandiflorum) est une plante herbacée, vivace et rhizomateuse de la famille des Liliacées (classification classique) ou des Melanthiaceae (classification APG II, 2003).
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de l'espèce vient du latin botanique grandiflorum, à grande fleur.
 </t>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante typique des érablières du nord-est de l'Amérique du Nord forme souvent de grandes colonies qui tapissent les sous-bois au printemps. La fleur solitaire, de 5 à 10 cm de diamètre, comporte trois pétales blancs à marge légèrement ondulés, devenant rose pâle avec l'âge. Elle se dresse au-dessus d'un verticille de trois larges feuilles rhomboïdes-ovales et acuminées, sans pétiole, rassemblées au sommet de la tige. Le fruit est une capsule ressemblant à une baie rouge et devenant bleu noir à maturité.
 </t>
@@ -575,7 +591,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sud de l'Ontario et du Québec (« espèce vulnérable »), Nouvelle-Angleterre, Michigan, Minnesota, Wisconsin.
 </t>
@@ -606,7 +624,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les jeunes pousses peuvent se manger cuites comme légume, mais cette pratique est déconseillée puisqu'elle entraîne généralement la mort de la plante. Le rhizome et le fruit ne sont pas comestibles.
 </t>
@@ -637,7 +657,9 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le trille blanc est l'emblème floral de la province canadienne de l'Ontario. Il apparaît également sur le drapeau franco-ontarien.
 La forme roseum à fleur rose, qu’on rencontre surtout en Virginie, et le cultivar à fleur double 'Flore Pleno' sont très recherchés.
